--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,74 +432,74 @@
         <v>bmce</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>108/ANSYSFYSN01</v>
+        <v>123/TEST PV</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>51000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ali expresse</v>
+        <v>Mohamed Amine</v>
       </c>
       <c r="B3" t="str">
-        <v>545444</v>
+        <v>aq5146</v>
       </c>
       <c r="C3" t="str">
-        <v>654866541016546545646544</v>
+        <v>654546506154634164613123</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>bmci</v>
+        <v>bmce</v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>001/LF/TEST DR</v>
+        <v>108/ANSYSFYSN01</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K3">
-        <v>10000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ali Benani</v>
+        <v>Ali expresse</v>
       </c>
       <c r="B4" t="str">
-        <v>q666465</v>
+        <v>545444</v>
       </c>
       <c r="C4" t="str">
-        <v>065446456487687687687867</v>
+        <v>654866541016546545646544</v>
       </c>
       <c r="D4" t="str">
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>cih</v>
+        <v>bmci</v>
       </c>
       <c r="F4" t="str">
         <v>Logement de fonction</v>
@@ -514,50 +514,85 @@
         <v>10000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Ali Benani</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>q666465</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>065446456487687687687867</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>cih</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>001/LF/TEST DR</v>
       </c>
       <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="J5">
-        <v>10500</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>69500</v>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>90000</v>
+      </c>
+      <c r="J6">
+        <v>12000</v>
+      </c>
+      <c r="K6">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,147 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MOURAD VAVA</v>
+        <v>KARIM JALAL</v>
       </c>
       <c r="B2" t="str">
-        <v>LK354534</v>
+        <v>P5874857</v>
       </c>
       <c r="C2" t="str">
-        <v>565696456548764134131431</v>
+        <v>548748641684867461687153</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>FES SUD</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>BMCE</v>
       </c>
       <c r="F2" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>332/AG FES1</v>
+        <v>800/PV FES 1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="J2">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="K2">
-        <v>13600</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>NABIL KAMAL</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>L3578354</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>345534544587485743558673</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>AGG1</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">044/LF/FES VILLE </v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="J3">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="K3">
-        <v>13600</v>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>KHADIJA LALA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>K5443645</v>
+      </c>
+      <c r="C4" t="str">
+        <v>354564564324158786713544</v>
+      </c>
+      <c r="D4" t="str">
+        <v>AG 100</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">044/FES VILLE </v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I5">
+        <v>70000</v>
+      </c>
+      <c r="J5">
+        <v>9000</v>
+      </c>
+      <c r="K5">
+        <v>61000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,147 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KARIM JALAL</v>
+        <v>ANAS MASTI</v>
       </c>
       <c r="B2" t="str">
-        <v>P5874857</v>
+        <v>BK747A53</v>
       </c>
       <c r="C2" t="str">
-        <v>548748641684867461687153</v>
+        <v>845777567757575888678487</v>
       </c>
       <c r="D2" t="str">
-        <v>FES SUD</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>BMCE</v>
+        <v>CIH</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>800/PV FES 1</v>
+        <v>456/CASA</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>44000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NABIL KAMAL</v>
+        <v>JAMAL JAMAL</v>
       </c>
       <c r="B3" t="str">
-        <v>L3578354</v>
+        <v>GT744635</v>
       </c>
       <c r="C3" t="str">
-        <v>345534544587485743558673</v>
+        <v>474747446474747474747474</v>
       </c>
       <c r="D3" t="str">
-        <v>AGG1</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>CIH</v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v>456/CASA</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KHADIJA LALA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>K5443645</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>354564564324158786713544</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>AG 100</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>70000</v>
-      </c>
-      <c r="J5">
-        <v>9000</v>
-      </c>
-      <c r="K5">
-        <v>61000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_8_2022.xlsx
@@ -417,72 +417,72 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ANAS MASTI</v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="B2" t="str">
-        <v>BK747A53</v>
+        <v>J207703</v>
       </c>
       <c r="C2" t="str">
-        <v>845777567757575888678487</v>
+        <v>00101211115087750001201090</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Ait souss</v>
       </c>
       <c r="E2" t="str">
-        <v>CIH</v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>456/CASA</v>
+        <v xml:space="preserve">901/FES </v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>JAMAL JAMAL</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v>GT744635</v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v>474747446474747474747474</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v>CIH</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v>456/CASA</v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K4">
-        <v>3000</v>
+        <v>9900</v>
       </c>
     </row>
   </sheetData>
